--- a/MeetingDaily.xlsx
+++ b/MeetingDaily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>用户列表</t>
   </si>
@@ -54,121 +54,168 @@
   </si>
   <si>
     <t>65000592-江苏分公司会议室
-69900297-淮安</t>
+69900307-南通
+69900355-银联商务扬州分公司
+69900335-无锡
+69900371-江苏分公司
+69900360-镇江分公司
+69900297-淮安
+69900316-昆山业务部
+69900348-盐城
+69900329-泰州
+69900341-徐州分公司
+69900332-泰兴业务部</t>
   </si>
   <si>
     <t>65000592-TV
-69900297-MOBILE</t>
-  </si>
-  <si>
-    <t>丢包:100%
-空音包:98%</t>
-  </si>
-  <si>
-    <t>丢包:100%
-空音包:99%</t>
-  </si>
-  <si>
-    <t>丢包:100%
-空音包:97%</t>
-  </si>
-  <si>
-    <t>65000592-&gt;69900297|合格|100%|97%
-69900297-&gt;65000592|合格|100%|99%</t>
-  </si>
-  <si>
-    <t>2019-01-15 11:10:00</t>
-  </si>
-  <si>
-    <t>0小时38分钟16秒</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>65000865-102会议室
-69900283-四平业务部
-69900418-新余业务部
-69900811-铜仁业务部
-69900604-陕西商洛业务部
-65000814-大连分公司
-65000818-内蒙古分公司
-69900101-福建分公司第四会议室
-69900810-黔西南业务部
-69900430-银联商务江西分公司
-69900519-烟台
-69900026-安徽分公司铜陵业务部
-65000811-天津分公司
-63015270-未命名
-63015271-河北崔鸿昊
-69900701-厦门分公司
-63015272-fofo see
-65000590-银联商务湖南分公司
-65000808-河北分公司
-65000832-云南分公司
-69900348-盐城</t>
-  </si>
-  <si>
-    <t>65000865-TV
-69900283-MOBILE
-69900418-MOBILE
-69900811-MOBILE
-69900604-MOBILE
-65000814-TV
-65000818-TV
-69900101-MOBILE
-69900810-MOBILE
-69900430-MOBILE
-69900519-MOBILE
-69900026-MOBILE
-65000811-TV
-63015270-IOS_KESHI
-63015271-ANDROID_JIHY
-69900701-MOBILE
-63015272-IOS_KESHI
-65000590-TV
-65000808-TV
-65000832-TV
-69900348-MOBILE</t>
-  </si>
-  <si>
-    <t>丢包:99%
-空音包:98%</t>
+69900307-MOBILE
+69900355-MOBILE
+69900335-MOBILE
+69900371-MOBILE
+69900360-MOBILE
+69900297-MOBILE
+69900316-MOBILE
+69900348-MOBILE
+69900329-MOBILE
+69900341-MOBILE
+69900332-MOBILE</t>
+  </si>
+  <si>
+    <t>丢包:92%
+空音包:94%</t>
   </si>
   <si>
     <t>丢包:100%
 空音包:100%</t>
   </si>
   <si>
+    <t>丢包:63%
+空音包:69%</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%
+69900307-&gt;69900329|合格|90%|88%
+69900307-&gt;69900335|不合格|72%|100%
+69900307-&gt;69900341|合格|100%|100%
+69900307-&gt;69900348|合格|79%|87%
+69900307-&gt;69900355|合格|69%|70%
+69900307-&gt;69900360|合格|67%|100%
+69900307-&gt;69900371|不合格|71%|80%
+69900335-&gt;65000592|合格|100%|100%
+69900335-&gt;69900297|合格|100%|100%
+69900335-&gt;69900307|合格|100%|100%
+69900335-&gt;69900316|合格|100%|100%
+69900335-&gt;69900329|合格|100%|100%
+69900335-&gt;69900341|合格|100%|100%
+69900335-&gt;69900348|合格|100%|100%
+69900335-&gt;69900355|合格|100%|100%
+69900335-&gt;69900360|合格|100%|100%
+69900335-&gt;69900371|合格|100%|100%
+69900355-&gt;65000592|合格|99%|99%
+69900355-&gt;69900297|合格|100%|96%
+69900355-&gt;69900307|不合格|77%|69%
+69900355-&gt;69900316|合格|100%|97%
+69900355-&gt;69900329|合格|100%|98%
+69900355-&gt;69900341|合格|100%|97%
+69900355-&gt;69900348|合格|100%|98%
+69900355-&gt;69900360|合格|99%|95%
+69900355-&gt;69900371|合格|99%|96%</t>
+  </si>
+  <si>
+    <t>2019-01-18 16:50:38</t>
+  </si>
+  <si>
+    <t>2小时26分钟55秒</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>60011116-和若铁路J1标监理站
+63015019-和若监理</t>
+  </si>
+  <si>
+    <t>60011116-M1plusHvs4
+63015019-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>丢包:96%
+空音包:88%</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%</t>
+  </si>
+  <si>
+    <t>2019-01-18 16:29:23</t>
+  </si>
+  <si>
+    <t>0小时23分钟21秒</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>61001335-TV
+69000078-TV</t>
+  </si>
+  <si>
+    <t>61001335-4层实验室
+69000078-董雪松</t>
+  </si>
+  <si>
+    <t>0小时21分钟52秒</t>
+  </si>
+  <si>
+    <t>2019-01-18 15:17:38</t>
+  </si>
+  <si>
+    <t>61000893-M1plus
+63015363-IOS_KESHI
+63015350-ANDROID_JIHY
+61000894-M1plus</t>
+  </si>
+  <si>
+    <t>61000893-未命名
+63015363-未命名
+63015350-杜超
+61000894-现场设备</t>
+  </si>
+  <si>
     <t>丢包:98%
-空音包:90%</t>
-  </si>
-  <si>
-    <t>65000592-&gt;69900297|合格|100%|97%
-69900297-&gt;65000592|合格|100%|99%
-63015270-&gt;63015271|合格|100%|100%
-63015270-&gt;63015272|合格|100%|100%
-63015271-&gt;63015270|合格|100%|100%
-63015272-&gt;63015270|合格|100%|90%
-65000865-&gt;65000590|合格|100%|100%
-65000865-&gt;65000808|合格|100%|100%
-65000865-&gt;65000811|合格|100%|100%
-65000865-&gt;65000814|合格|100%|99%
-65000865-&gt;65000818|合格|99%|99%
-65000865-&gt;65000832|合格|100%|100%
-65000865-&gt;69900026|合格|98%|98%
-65000865-&gt;69900101|合格|100%|99%
-65000865-&gt;69900283|合格|100%|100%
-65000865-&gt;69900418|合格|99%|99%
-65000865-&gt;69900430|合格|100%|100%
-65000865-&gt;69900604|合格|100%|100%
-65000865-&gt;69900701|合格|98%|99%</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:01:40</t>
-  </si>
-  <si>
-    <t>0小时59分钟48秒</t>
+空音包:94%</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>1小时9分钟1秒</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:28:24</t>
   </si>
 </sst>
 </file>
@@ -504,7 +551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30449259</v>
+        <v>30450675</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -579,7 +626,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -593,37 +640,113 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10449163</v>
+        <v>20450657</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20450649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60450621</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/MeetingDaily.xlsx
+++ b/MeetingDaily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>用户列表</t>
   </si>
@@ -51,6 +51,59 @@
   </si>
   <si>
     <t>持续时间</t>
+  </si>
+  <si>
+    <t>65000592-江苏分公司会议室
+69900372-江苏21楼会议室</t>
+  </si>
+  <si>
+    <t>65000592-TV
+69900372-MOBILE</t>
+  </si>
+  <si>
+    <t>丢包:100%
+空音包:100%</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>2019-01-19 21:13:34</t>
+  </si>
+  <si>
+    <t>0小时51分钟1秒</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>60011116-和若铁路J1标监理站
+63015019-和若监理</t>
+  </si>
+  <si>
+    <t>60011116-M1plusHvs4
+63015019-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>2019-01-18 18:20:21</t>
+  </si>
+  <si>
+    <t>0小时13分钟50秒</t>
+  </si>
+  <si>
+    <t>65000592-TV
+69900307-MOBILE
+69900355-MOBILE
+69900335-MOBILE
+69900371-MOBILE
+69900360-MOBILE
+69900297-MOBILE
+69900316-MOBILE
+69900348-MOBILE
+69900329-MOBILE
+69900341-MOBILE
+69900332-MOBILE</t>
   </si>
   <si>
     <t>65000592-江苏分公司会议室
@@ -67,33 +120,196 @@
 69900332-泰兴业务部</t>
   </si>
   <si>
-    <t>65000592-TV
-69900307-MOBILE
-69900355-MOBILE
-69900335-MOBILE
-69900371-MOBILE
-69900360-MOBILE
-69900297-MOBILE
-69900316-MOBILE
-69900348-MOBILE
-69900329-MOBILE
-69900341-MOBILE
-69900332-MOBILE</t>
-  </si>
-  <si>
-    <t>丢包:92%
+    <t>丢包:93%
 空音包:94%</t>
   </si>
   <si>
-    <t>丢包:100%
-空音包:100%</t>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%
+69900307-&gt;69900329|合格|90%|88%
+69900307-&gt;69900335|不合格|72%|100%
+69900307-&gt;69900341|合格|100%|100%
+69900307-&gt;69900348|合格|79%|87%
+69900307-&gt;69900355|合格|69%|70%
+69900307-&gt;69900360|合格|67%|100%
+69900307-&gt;69900371|不合格|71%|80%
+69900335-&gt;65000592|合格|100%|100%
+69900335-&gt;69900297|合格|100%|100%
+69900335-&gt;69900307|合格|100%|100%
+69900335-&gt;69900316|合格|100%|100%
+69900335-&gt;69900329|合格|100%|100%
+69900335-&gt;69900341|合格|100%|100%
+69900335-&gt;69900348|合格|100%|100%
+69900335-&gt;69900355|合格|100%|100%
+69900335-&gt;69900360|合格|100%|100%
+69900335-&gt;69900371|合格|100%|100%
+69900355-&gt;65000592|合格|99%|99%
+69900355-&gt;69900297|合格|100%|96%
+69900355-&gt;69900307|不合格|77%|69%
+69900355-&gt;69900316|合格|100%|97%
+69900355-&gt;69900329|合格|100%|98%</t>
   </si>
   <si>
     <t>丢包:63%
 空音包:69%</t>
   </si>
   <si>
-    <t>65000592-&gt;69900297|合格|99%|97%
+    <t>85%</t>
+  </si>
+  <si>
+    <t>2小时26分钟55秒</t>
+  </si>
+  <si>
+    <t>2019-01-18 16:50:38</t>
+  </si>
+  <si>
+    <t>0小时23分钟21秒</t>
+  </si>
+  <si>
+    <t>2019-01-18 16:29:23</t>
+  </si>
+  <si>
+    <t>61001335-TV
+69000078-TV</t>
+  </si>
+  <si>
+    <t>61001335-4层实验室
+69000078-董雪松</t>
+  </si>
+  <si>
+    <t>0小时21分钟52秒</t>
+  </si>
+  <si>
+    <t>2019-01-18 15:17:38</t>
+  </si>
+  <si>
+    <t>61000893-M1plus
+63015363-IOS_KESHI
+63015350-ANDROID_JIHY
+61000894-M1plus</t>
+  </si>
+  <si>
+    <t>61000893-未命名
+63015363-未命名
+63015350-杜超
+61000894-现场设备</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:95%</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>1小时9分钟1秒</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:28:24</t>
+  </si>
+  <si>
+    <t>61001336-22层会议室
+61001362-深圳项目组
+63015338-17705190122</t>
+  </si>
+  <si>
+    <t>61001336-TV
+61001362-TV
+63015338-C-me</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%</t>
+  </si>
+  <si>
+    <t>丢包:98%
+空音包:94%</t>
+  </si>
+  <si>
+    <t>2019-01-17 16:48:26</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>0小时32分钟43秒</t>
+  </si>
+  <si>
+    <t>65000812-山东分公司
+69900583-枣庄分公司
+69900528-淄博分公司
+69900486-菏泽分公司
+69900578-威海分公司
+69900559-微山办事处
+69900510-潍坊分公司
+69900498-临沂分公司
+69900553-济宁分公司
+69900573-泰安分公司
+69900569-日照
+69900473-滨州分公司
+69900563-聊城分公司
+69900537-武城县办事处
+69900480-东营分公司
+69900496-莱芜本部
+69900519-烟台
+69900478-惠民</t>
+  </si>
+  <si>
+    <t>65000812-TV
+69900583-MOBILE
+69900528-MOBILE
+69900486-MOBILE
+69900578-MOBILE
+69900559-MOBILE
+69900510-MOBILE
+69900498-MOBILE
+69900553-MOBILE
+69900573-MOBILE
+69900569-MOBILE
+69900473-MOBILE
+69900563-MOBILE
+69900537-MOBILE
+69900480-MOBILE
+69900496-MOBILE
+69900519-MOBILE
+69900478-MOBILE</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
 65000592-&gt;69900307|不合格|94%|79%
 65000592-&gt;69900316|合格|100%|100%
 65000592-&gt;69900329|合格|100%|100%
@@ -132,90 +348,974 @@
 69900355-&gt;69900341|合格|100%|97%
 69900355-&gt;69900348|合格|100%|98%
 69900355-&gt;69900360|合格|99%|95%
-69900355-&gt;69900371|合格|99%|96%</t>
-  </si>
-  <si>
-    <t>2019-01-18 16:50:38</t>
-  </si>
-  <si>
-    <t>2小时26分钟55秒</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>60011116-和若铁路J1标监理站
-63015019-和若监理</t>
-  </si>
-  <si>
-    <t>60011116-M1plusHvs4
-63015019-ANDROID_JIHY</t>
-  </si>
-  <si>
-    <t>丢包:96%
-空音包:88%</t>
-  </si>
-  <si>
-    <t>65000592-&gt;69900297|合格|99%|97%
-65000592-&gt;69900307|不合格|94%|79%</t>
-  </si>
-  <si>
-    <t>2019-01-18 16:29:23</t>
-  </si>
-  <si>
-    <t>0小时23分钟21秒</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>61001335-TV
-69000078-TV</t>
-  </si>
-  <si>
-    <t>61001335-4层实验室
-69000078-董雪松</t>
-  </si>
-  <si>
-    <t>0小时21分钟52秒</t>
-  </si>
-  <si>
-    <t>2019-01-18 15:17:38</t>
+69900355-&gt;69900371|合格|99%|96%
+60011116-&gt;63015019|合格|66%|92%
+63015019-&gt;60011116|合格|95%|95%
+61001335-&gt;69000078|合格|100%|100%
+69000078-&gt;61001335|合格|100%|99%
+61000893-&gt;61000894|合格|99%|98%
+61000893-&gt;63015350|合格|100%|33%
+61000893-&gt;63015363|合格|92%|85%
+61000894-&gt;61000893|合格|100%|99%
+63015350-&gt;61000893|合格|100%|66%
+63015350-&gt;63015363|合格|100%|100%
+63015363-&gt;61000893|合格|100%|100%
+63015363-&gt;63015350|合格|100%|100%
+61001336-&gt;61001362|合格|100%|99%
+61001336-&gt;63015338|合格|100%|100%
+61001362-&gt;61001336|合格|100%|99%
+61001362-&gt;63015338|合格|100%|100%
+63015338-&gt;61001336|合格|100%|50%
+63015338-&gt;61001362|合格|100%|50%
+65000812-&gt;69900473|合格|100%|99%
+65000812-&gt;69900478|合格|99%|99%
+65000812-&gt;69900480|合格|100%|99%
+65000812-&gt;69900486|合格|100%|100%
+65000812-&gt;69900496|合格|100%|100%
+65000812-&gt;69900498|合格|100%|99%
+65000812-&gt;69900510|合格|99%|99%
+65000812-&gt;69900519|合格|99%|99%
+65000812-&gt;69900528|合格|100%|99%
+65000812-&gt;69900537|合格|100%|100%
+65000812-&gt;69900553|合格|99%|100%
+65000812-&gt;69900559|合格|100%|100%
+65000812-&gt;69900563|合格|99%|99%
+65000812-&gt;69900569|合格|100%|100%
+65000812-&gt;69900573|合格|99%|96%
+65000812-&gt;69900578|合格|99%|99%
+65000812-&gt;69900583|合格|99%|98%
+69900480-&gt;65000812|合格|100%|100%
+69900480-&gt;69900473|合格|100%|97%
+69900480-&gt;69900478|合格|99%|100%
+69900480-&gt;69900486|合格|100%|100%
+69900480-&gt;69900496|合格|100%|100%
+69900480-&gt;69900498|合格|100%|100%
+69900480-&gt;69900510|合格|100%|100%
+69900480-&gt;69900519|合格|100%|100%
+69900480-&gt;69900528|合格|100%|100%
+69900480-&gt;69900537|合格|100%|100%
+69900480-&gt;69900553|合格|100%|100%
+69900480-&gt;69900563|合格|99%|100%
+69900480-&gt;69900569|合格|100%|100%
+69900480-&gt;69900573|合格|99%|97%
+69900480-&gt;69900578|合格|100%|97%
+69900480-&gt;69900583|合格|99%|95%
+69900486-&gt;65000812|合格|100%|91%
+69900486-&gt;69900473|合格|100%|80%
+69900486-&gt;69900480|合格|100%|80%
+69900486-&gt;69900498|合格|100%|100%
+69900486-&gt;69900510|合格|100%|80%
+69900486-&gt;69900528|合格|100%|91%
+69900486-&gt;69900537|合格|100%|83%
+69900486-&gt;69900553|合格|100%|80%
+69900486-&gt;69900559|合格|100%|100%
+69900486-&gt;69900563|合格|100%|83%
+69900486-&gt;69900569|合格|100%|100%
+69900486-&gt;69900573|合格|97%|60%
+69900486-&gt;69900578|合格|99%|83%
+69900486-&gt;69900583|合格|99%|91%
+69900496-&gt;65000812|合格|100%|100%
+69900496-&gt;69900473|合格|100%|100%
+69900496-&gt;69900478|合格|100%|100%
+69900496-&gt;69900480|合格|100%|100%
+69900496-&gt;69900486|合格|100%|100%
+69900496-&gt;69900498|合格|100%|100%
+69900496-&gt;69900510|合格|100%|100%
+69900496-&gt;69900519|合格|100%|100%
+69900496-&gt;69900528|合格|100%|100%
+69900496-&gt;69900537|合格|100%|100%
+69900496-&gt;69900553|合格|100%|100%
+69900496-&gt;69900563|合格|100%|100%
+69900496-&gt;69900569|合格|100%|100%
+69900496-&gt;69900573|合格|100%|100%
+69900496-&gt;69900578|合格|100%|100%
+69900496-&gt;69900583|合格|100%|100%
+69900510-&gt;65000812|合格|100%|50%
+69900510-&gt;69900486|合格|100%|50%
+69900510-&gt;69900528|合格|100%|50%
+69900510-&gt;69900578|合格|100%|50%
+69900510-&gt;69900583|合格|100%|50%
+69900528-&gt;65000812|合格|100%|71%
+69900528-&gt;69900486|合格|100%|66%
+69900528-&gt;69900583|合格|100%|57%
+69900553-&gt;65000812|合格|100%|99%
+69900553-&gt;69900473|合格|100%|99%
+69900553-&gt;69900478|合格|98%|99%
+69900553-&gt;69900480|合格|100%|99%
+69900553-&gt;69900486|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>丢包:63%
+空音包:33%</t>
+  </si>
+  <si>
+    <t>丢包:97%
+空音包:92%</t>
+  </si>
+  <si>
+    <t>2019-01-17 15:41:05</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>1小时10分钟1秒</t>
+  </si>
+  <si>
+    <t>61000893-未命名
+63013915-周盛
+63015350-杜超
+61000894-现场设备</t>
+  </si>
+  <si>
+    <t>1小时21分钟21秒</t>
+  </si>
+  <si>
+    <t>81%</t>
   </si>
   <si>
     <t>61000893-M1plus
-63015363-IOS_KESHI
+63013915-ANDROID_JIHY
 63015350-ANDROID_JIHY
 61000894-M1plus</t>
   </si>
   <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%</t>
+  </si>
+  <si>
+    <t>丢包:98%
+空音包:95%</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:25:34</t>
+  </si>
+  <si>
     <t>61000893-未命名
-63015363-未命名
-63015350-杜超
-61000894-现场设备</t>
-  </si>
-  <si>
-    <t>丢包:98%
-空音包:94%</t>
-  </si>
-  <si>
-    <t>65000592-&gt;69900297|合格|99%|97%
+63013915-周盛
+63015350-杜超</t>
+  </si>
+  <si>
+    <t>0小时55分钟0秒</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%</t>
+  </si>
+  <si>
+    <t>61000893-M1plus
+63013915-ANDROID_JIHY
+63015350-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:36:16</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:97%</t>
+  </si>
+  <si>
+    <t>65000501-汇能本部
+60020137-华东分公司
+60020139-山东分公司
+60015070-中南分公司
+60015097-西北分公司
+63012083-全丹琴
+60020122-新疆分公司
+60015079-内蒙分公司
+63011872-东南分公司
+63013237-聂庆长</t>
+  </si>
+  <si>
+    <t>1小时10分钟49秒</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>65000501-TV
+60020137-M1plus
+60020139-M1plus
+60015070-M1plus
+60015097-M1plus
+63012083-IOS_KESHI
+60020122-M1plus
+60015079-M1plusHvs4
+63011872-IOS_KESHI
+63013237-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
 65000592-&gt;69900307|不合格|94%|79%
 65000592-&gt;69900316|合格|100%|100%
 65000592-&gt;69900329|合格|100%|100%
 65000592-&gt;69900332|不合格|95%|86%
 65000592-&gt;69900335|合格|99%|99%
 65000592-&gt;69900341|合格|100%|99%
-65000592-&gt;69900348|合格|100%|99%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>1小时9分钟1秒</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:28:24</t>
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%
+69900307-&gt;69900329|合格|90%|88%
+69900307-&gt;69900335|不合格|72%|100%
+69900307-&gt;69900341|合格|100%|100%
+69900307-&gt;69900348|合格|79%|87%
+69900307-&gt;69900355|合格|69%|70%
+69900307-&gt;69900360|合格|67%|100%
+69900307-&gt;69900371|不合格|71%|80%
+69900335-&gt;65000592|合格|100%|100%
+69900335-&gt;69900297|合格|100%|100%
+69900335-&gt;69900307|合格|100%|100%
+69900335-&gt;69900316|合格|100%|100%
+69900335-&gt;69900329|合格|100%|100%
+69900335-&gt;69900341|合格|100%|100%
+69900335-&gt;69900348|合格|100%|100%
+69900335-&gt;69900355|合格|100%|100%
+69900335-&gt;69900360|合格|100%|100%
+69900335-&gt;69900371|合格|100%|100%
+69900355-&gt;65000592|合格|99%|99%
+69900355-&gt;69900297|合格|100%|96%
+69900355-&gt;69900307|不合格|77%|69%
+69900355-&gt;69900316|合格|100%|97%
+69900355-&gt;69900329|合格|100%|98%
+69900355-&gt;69900341|合格|100%|97%
+69900355-&gt;69900348|合格|100%|98%
+69900355-&gt;69900360|合格|99%|95%
+69900355-&gt;69900371|合格|99%|96%
+60011116-&gt;63015019|合格|66%|92%
+63015019-&gt;60011116|合格|95%|95%
+61001335-&gt;69000078|合格|100%|100%
+69000078-&gt;61001335|合格|100%|99%
+61000893-&gt;61000894|合格|99%|98%
+61000893-&gt;63015350|合格|100%|33%
+61000893-&gt;63015363|合格|92%|85%
+61000894-&gt;61000893|合格|100%|99%
+63015350-&gt;61000893|合格|100%|66%
+63015350-&gt;63015363|合格|100%|100%
+63015363-&gt;61000893|合格|100%|100%
+63015363-&gt;63015350|合格|100%|100%
+61001336-&gt;61001362|合格|100%|99%
+61001336-&gt;63015338|合格|100%|100%
+61001362-&gt;61001336|合格|100%|99%
+61001362-&gt;63015338|合格|100%|100%
+63015338-&gt;61001336|合格|100%|50%
+63015338-&gt;61001362|合格|100%|50%
+65000812-&gt;69900473|合格|100%|99%
+65000812-&gt;69900478|合格|99%|99%
+65000812-&gt;69900480|合格|100%|99%
+65000812-&gt;69900486|合格|100%|100%
+65000812-&gt;69900496|合格|100%|100%
+65000812-&gt;69900498|合格|100%|99%
+65000812-&gt;69900510|合格|99%|99%
+65000812-&gt;69900519|合格|99%|99%
+65000812-&gt;69900528|合格|100%|99%
+65000812-&gt;69900537|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>丢包:95%
+空音包:93%</t>
+  </si>
+  <si>
+    <t>2019-01-17 09:33:05</t>
+  </si>
+  <si>
+    <t>60020144-西南分公司
+60020140-富川公司
+63012851-植天飞
+63013607-吴业旭
+60015074-海南东方</t>
+  </si>
+  <si>
+    <t>127小时35分钟58秒</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%</t>
+  </si>
+  <si>
+    <t>60020144-M1plus
+60020140-M1plus
+63012851-ANDROID_JIHY
+63013607-ANDROID_JIHY
+60015074-M1plus</t>
+  </si>
+  <si>
+    <t>2019-01-17 08:38:55</t>
+  </si>
+  <si>
+    <t>丢包:94%
+空音包:94%</t>
+  </si>
+  <si>
+    <t>7小时55分钟51秒</t>
+  </si>
+  <si>
+    <t>65000865-102会议室
+65000596-甘肃分公司
+65000597-四川分公司
+69900188-韶关分公司
+69900766-德宏瑞丽
+69900788-温州业务部
+69900190-阳江分公司
+69900723-楚雄业务部
+65000820-湖北分公司
+65000832-云南分公司
+69900761-玉溪易门县
+65000595-安徽分公司
+69900733-德宏
+69900763-镇雄刘云刚
+65000813-青岛分公司
+69900727-大理业务部
+69900721-保山业务部
+65000829-深圳市银联金融网络有限公司
+65000819-宁夏分公司
+65000817-黑龙江分公司
+69900675-遂宁办事处
+69900519-烟台
+69900392-吉安业务部
+69900739-红河-蒙自
+69900783-衢州业务部
+69900191-广州银联网络云浮分公司
+65000826-浙江分公司
+69900775-湖州业务部
+69900984-宁夏分公司平罗业务部
+69900667-乐山业务部
+69900776-嘉兴业务部
+69900741-弥勒
+69900749-怒江业务部
+69900728-大理巍山县
+69900767-昆明业务部螺蛳湾
+69900903-广州银联网络支付有限公司(4号会议
+69900000-TEST
+69900461-宁夏分公司石嘴山业务部
+69900781-丽水业务部
+69900195-顺德分公司
+69900244-河南分公司17楼
+69900738-个旧
+69900668-凉山业务部
+69900677-宜宾办事处
+65000810-陕西分公司
+69900128-广西分公司
+65000588-上海银联商务有限公司
+69900664-银联商务德阳业务部
+69900787-浙江台州业务部
+69900789-舟山业务部
+69900793-浙江分公司11楼
+69900665-广安业务部
+69900258-湖北襄阳
+69900699-河北分公司
+69900157-南区分公司
+69900746-临沧业务部
+69900460-宁夏分公司固原业务部
+69900670-眉山业务部
+69900175-清远市分公司
+65000831-贵州分公司
+69900230-漯河
+69900163-惠州分公司
+69900462-宁夏分公司中卫业务部
+69900463-宁夏分公司中宁业务部
+69900674-攀枝花办事处
+69900459-宁夏分公司吴忠业务部
+69900154-广州-从化分公司
+69900673-南充办事处
+69900744-丽江业务部
+69900153-银联网络-北区
+69900481-河口办事处
+69900730-祥云县杜建永</t>
+  </si>
+  <si>
+    <t>65000865-TV
+65000596-TV
+65000597-TV
+69900188-MOBILE
+69900766-MOBILE
+69900788-MOBILE
+69900190-MOBILE
+69900723-MOBILE
+65000820-TV
+65000832-TV
+69900761-MOBILE
+65000595-TV
+69900733-MOBILE
+69900763-MOBILE
+65000813-TV
+69900727-MOBILE
+69900721-MOBILE
+65000829-TV
+65000819-TV
+65000817-TV
+69900675-MOBILE
+69900519-MOBILE
+69900392-MOBILE
+69900739-MOBILE
+69900783-MOBILE
+69900191-MOBILE
+65000826-TV
+69900775-MOBILE
+69900984-MOBILE
+69900667-MOBILE
+69900776-MOBILE
+69900741-MOBILE
+69900749-MOBILE
+69900728-MOBILE
+69900767-MOBILE
+69900903-MOBILE
+69900000-MOBILE
+69900461-MOBILE
+69900781-MOBILE
+69900195-MOBILE
+69900244-MOBILE
+69900738-MOBILE
+69900668-MOBILE
+69900677-MOBILE
+65000810-TV
+69900128-MOBILE
+65000588-TV
+69900664-MOBILE
+69900787-MOBILE
+69900789-MOBILE
+69900793-MOBILE
+69900665-MOBILE
+69900258-MOBILE
+69900699-MOBILE
+69900157-MOBILE
+69900746-MOBILE
+69900460-MOBILE
+69900670-MOBILE
+69900175-MOBILE
+65000831-TV
+69900230-MOBILE
+69900163-MOBILE
+69900462-MOBILE
+69900463-MOBILE
+69900674-MOBILE
+69900459-MOBILE
+69900154-MOBILE
+69900673-MOBILE
+69900744-MOBILE
+69900153-MOBILE
+69900481-MOBILE
+69900730-MOBILE</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%
+69900307-&gt;69900329|合格|90%|88%
+69900307-&gt;69900335|不合格|72%|100%
+69900307-&gt;69900341|合格|100%|100%
+69900307-&gt;69900348|合格|79%|87%
+69900307-&gt;69900355|合格|69%|70%
+69900307-&gt;69900360|合格|67%|100%
+69900307-&gt;69900371|不合格|71%|80%
+69900335-&gt;65000592|合格|100%|100%
+69900335-&gt;69900297|合格|100%|100%
+69900335-&gt;69900307|合格|100%|100%
+69900335-&gt;69900316|合格|100%|100%
+69900335-&gt;69900329|合格|100%|100%
+69900335-&gt;69900341|合格|100%|100%
+69900335-&gt;69900348|合格|100%|100%
+69900335-&gt;69900355|合格|100%|100%
+69900335-&gt;69900360|合格|100%|100%
+69900335-&gt;69900371|合格|100%|100%
+69900355-&gt;65000592|合格|99%|99%
+69900355-&gt;69900297|合格|100%|96%
+69900355-&gt;69900307|不合格|77%|69%
+69900355-&gt;69900316|合格|100%|97%
+69900355-&gt;69900329|合格|100%|98%
+69900355-&gt;69900341|合格|100%|97%
+69900355-&gt;69900348|合格|100%|98%
+69900355-&gt;69900360|合格|99%|95%
+69900355-&gt;69900371|合格|99%|96%
+60011116-&gt;63015019|合格|66%|92%
+63015019-&gt;60011116|合格|95%|95%
+61001335-&gt;69000078|合格|100%|100%
+69000078-&gt;61001335|合格|100%|99%
+61000893-&gt;61000894|合格|99%|98%
+61000893-&gt;63015350|合格|100%|33%
+61000893-&gt;63015363|合格|92%|85%
+61000894-&gt;61000893|合格|100%|99%
+63015350-&gt;61000893|合格|100%|66%
+63015350-&gt;63015363|合格|100%|100%
+63015363-&gt;61000893|合格|100%|100%
+63015363-&gt;63015350|合格|100%|100%
+61001336-&gt;61001362|合格|100%|99%
+61001336-&gt;63015338|合格|100%|100%
+61001362-&gt;61001336|合格|100%|99%
+61001362-&gt;63015338|合格|100%|100%
+63015338-&gt;61001336|合格|100%|50%
+63015338-&gt;61001362|合格|100%|50%
+65000812-&gt;69900473|合格|100%|99%
+65000812-&gt;69900478|合格|99%|99%
+65000812-&gt;69900480|合格|100%|99%
+65000812-&gt;69900486|合格|100%|100%
+65000812-&gt;69900496|合格|100%|100%
+65000812-&gt;69900498|合格|100%|99%
+65000812-&gt;69900510|合格|99%|99%
+65000812-&gt;69900519|合格|99%|99%
+65000812-&gt;69900528|合格|100%|99%
+65000812-&gt;69900537|合格|100%|100%
+65000812-&gt;69900553|合格|99%|100%
+65000812-&gt;69900559|合格|100%|100%
+65000812-&gt;69900563|合格|99%|99%
+65000812-&gt;69900569|合格|100%|100%
+65000812-&gt;69900573|合格|99%|96%
+65000812-&gt;69900578|合格|99%|99%
+65000812-&gt;69900583|合格|99%|98%
+69900480-&gt;65000812|合格|100%|100%
+69900480-&gt;69900473|合格|100%|97%
+69900480-&gt;69900478|合格|99%|100%
+69900480-&gt;69900486|合格|100%|100%
+69900480-&gt;69900496|合格|100%|100%
+69900480-&gt;69900498|合格|100%|100%
+69900480-&gt;69900510|合格|100%|100%
+69900480-&gt;69900519|合格|100%|100%
+69900480-&gt;69900528|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>丢包:96%
+空音包:94%</t>
+  </si>
+  <si>
+    <t>2019-01-17 08:13:55</t>
+  </si>
+  <si>
+    <t>1小时14分钟42秒</t>
+  </si>
+  <si>
+    <t>65000827-银联商务福建分公司
+69900062-泉州分公司
+69900068-安溪
+69900066-南安办事处
+69900087-漳州
+69900039-福建-南平
+69900063-KE
+69900978-福建分公司终端灌装中心
+69900095-云诏东
+69900079-三明尤溪
+69900069-永春
+69900049-宁德
+69900064-晋江
+69900046-光泽
+69900045-浦城县
+69900041-武夷山
+69900044-顺昌
+69900052-宁德霞浦
+69900050-宁德福安
+69900043-建阳
+69900097-南靖
+69900054-宁德屏南
+69900090-龙海
+69900042-建瓯
+69900080-沙县
+69900051-福鼎
+69900074- 三明业务部
+69900077-永安
+69900058-莆田业务部
+69900083-泰宁县
+69900075-宁化县
+69900031-龙岩
+69900060-涵江
+69900061-莆田业务部秀屿办事处
+69900076-将乐
+69900106-闽侯办事处
+69900102-马尾林红磊
+69900110-闽清
+69900059-仙游县
+69900078-三明大田
+69900034-龙岩市长汀县
+69900103-福清
+69900036-龙岩-上杭县
+69900033-漳平市
+69900104-长乐
+69900096-张三
+69900092-漳浦
+69900107-平潭
+69900067-惠安</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%
+65000592-&gt;69900335|合格|99%|99%
+65000592-&gt;69900341|合格|100%|99%
+65000592-&gt;69900348|合格|100%|99%
+65000592-&gt;69900355|合格|98%|97%
+65000592-&gt;69900360|合格|100%|100%
+65000592-&gt;69900371|合格|100%|100%
+69900307-&gt;65000592|不合格|76%|85%
+69900307-&gt;69900297|合格|73%|90%
+69900307-&gt;69900316|合格|63%|90%
+69900307-&gt;69900329|合格|90%|88%
+69900307-&gt;69900335|不合格|72%|100%
+69900307-&gt;69900341|合格|100%|100%
+69900307-&gt;69900348|合格|79%|87%
+69900307-&gt;69900355|合格|69%|70%
+69900307-&gt;69900360|合格|67%|100%
+69900307-&gt;69900371|不合格|71%|80%
+69900335-&gt;65000592|合格|100%|100%
+69900335-&gt;69900297|合格|100%|100%
+69900335-&gt;69900307|合格|100%|100%
+69900335-&gt;69900316|合格|100%|100%
+69900335-&gt;69900329|合格|100%|100%
+69900335-&gt;69900341|合格|100%|100%
+69900335-&gt;69900348|合格|100%|100%
+69900335-&gt;69900355|合格|100%|100%
+69900335-&gt;69900360|合格|100%|100%
+69900335-&gt;69900371|合格|100%|100%
+69900355-&gt;65000592|合格|99%|99%
+69900355-&gt;69900297|合格|100%|96%
+69900355-&gt;69900307|不合格|77%|69%
+69900355-&gt;69900316|合格|100%|97%
+69900355-&gt;69900329|合格|100%|98%
+69900355-&gt;69900341|合格|100%|97%
+69900355-&gt;69900348|合格|100%|98%
+69900355-&gt;69900360|合格|99%|95%
+69900355-&gt;69900371|合格|99%|96%
+60011116-&gt;63015019|合格|66%|92%
+63015019-&gt;60011116|合格|95%|95%
+61001335-&gt;69000078|合格|100%|100%
+69000078-&gt;61001335|合格|100%|99%
+61000893-&gt;61000894|合格|99%|98%
+61000893-&gt;63015350|合格|100%|33%
+61000893-&gt;63015363|合格|92%|85%
+61000894-&gt;61000893|合格|100%|99%
+63015350-&gt;61000893|合格|100%|66%
+63015350-&gt;63015363|合格|100%|100%
+63015363-&gt;61000893|合格|100%|100%
+63015363-&gt;63015350|合格|100%|100%
+61001336-&gt;61001362|合格|100%|99%
+61001336-&gt;63015338|合格|100%|100%
+61001362-&gt;61001336|合格|100%|99%
+61001362-&gt;63015338|合格|100%|100%
+63015338-&gt;61001336|合格|100%|50%
+63015338-&gt;61001362|合格|100%|50%
+65000812-&gt;69900473|合格|100%|99%
+65000812-&gt;69900478|合格|99%|99%
+65000812-&gt;69900480|合格|100%|99%
+65000812-&gt;69900486|合格|100%|100%
+65000812-&gt;69900496|合格|100%|100%
+65000812-&gt;69900498|合格|100%|99%
+65000812-&gt;69900510|合格|99%|99%
+65000812-&gt;69900519|合格|99%|99%
+65000812-&gt;69900528|合格|100%|99%
+65000812-&gt;69900537|合格|100%|100%
+65000812-&gt;69900553|合格|99%|100%
+65000812-&gt;69900559|合格|100%|100%
+65000812-&gt;69900563|合格|99%|99%
+65000812-&gt;69900569|合格|100%|100%
+65000812-&gt;69900573|合格|99%|96%
+65000812-&gt;69900578|合格|99%|99%
+65000812-&gt;69900583|合格|99%|98%
+69900480-&gt;65000812|合格|100%|100%
+69900480-&gt;69900473|合格|100%|97%
+69900480-&gt;69900478|合格|99%|100%
+69900480-&gt;69900486|合格|100%|100%
+69900480-&gt;69900496|合格|100%|100%
+69900480-&gt;69900498|合格|100%|100%
+69900480-&gt;69900510|合格|100%|100%
+69900480-&gt;69900519|合格|100%|100%
+69900480-&gt;69900528|合格|100%|100%
+69900480-&gt;69900537|合格|100%|100%
+69900480-&gt;69900553|合格|100%|100%
+69900480-&gt;69900563|合格|99%|100%
+69900480-&gt;69900569|合格|100%|100%
+69900480-&gt;69900573|合格|99%|97%
+69900480-&gt;69900578|合格|100%|97%
+69900480-&gt;69900583|合格|99%|95%
+69900486-&gt;65000812|合格|100%|91%
+69900486-&gt;69900473|合格|100%|80%
+69900486-&gt;69900480|合格|100%|80%
+69900486-&gt;69900498|合格|100%|100%
+69900486-&gt;69900510|合格|100%|80%
+69900486-&gt;69900528|合格|100%|91%
+69900486-&gt;69900537|合格|100%|83%
+69900486-&gt;69900553|合格|100%|80%
+69900486-&gt;69900559|合格|100%|100%
+69900486-&gt;69900563|合格|100%|83%
+69900486-&gt;69900569|合格|100%|100%
+69900486-&gt;69900573|合格|97%|60%
+69900486-&gt;69900578|合格|99%|83%
+69900486-&gt;69900583|合格|99%|91%
+69900496-&gt;65000812|合格|100%|100%
+69900496-&gt;69900473|合格|100%|100%
+69900496-&gt;69900478|合格|100%|100%
+69900496-&gt;69900480|合格|100%|100%
+69900496-&gt;69900486|合格|100%|100%
+69900496-&gt;69900498|合格|100%|100%
+69900496-&gt;69900510|合格|100%|100%
+69900496-&gt;69900519|合格|100%|100%
+69900496-&gt;69900528|合格|100%|100%
+69900496-&gt;69900537|合格|100%|100%
+69900496-&gt;69900553|合格|100%|100%
+69900496-&gt;69900563|合格|100%|100%
+69900496-&gt;69900569|合格|100%|100%
+69900496-&gt;69900573|合格|100%|100%
+69900496-&gt;69900578|合格|100%|100%
+69900496-&gt;69900583|合格|100%|100%
+69900510-&gt;65000812|合格|100%|50%
+69900510-&gt;69900486|合格|100%|50%
+69900510-&gt;69900528|合格|100%|50%
+69900510-&gt;69900578|合格|100%|50%
+69900510-&gt;69900583|合格|100%|50%
+69900528-&gt;65000812|合格|100%|71%
+69900528-&gt;69900486|合格|100%|66%
+69900528-&gt;69900583|合格|100%|57%
+69900553-&gt;65000812|合格|100%|99%
+69900553-&gt;69900473|合格|100%|99%
+69900553-&gt;69900478|合格|98%|99%
+69900553-&gt;69900480|合格|100%|99%
+69900553-&gt;69900486|合格|100%|100%
+69900553-&gt;69900496|合格|100%|99%
+69900553-&gt;69900498|合格|100%|99%
+69900553-&gt;69900510|合格|99%|99%
+69900553-&gt;69900519|合格|100%|99%
+69900553-&gt;69900528|合格|100%|99%
+69900553-&gt;69900537|合格|100%|100%
+69900553-&gt;69900563|合格|99%|99%
+69900553-&gt;69900569|合格|100%|99%
+69900553-&gt;69900573|合格|99%|96%
+69900553-&gt;69900578|合格|100%|99%
+69900553-&gt;69900583|合格|99%|99%
+69900559-&gt;65000812|合格|100%|100%
+69900559-&gt;69900486|合格|100%|100%
+69900559-&gt;69900528|合格|100%|100%
+69900559-&gt;69900578|合格|100%|100%
+69900559-&gt;69900583|合格|100%|100%
+69900563-&gt;65000812|合格|100%|75%
+69900563-&gt;69900473|合格|100%|100%
+69900563-&gt;69900480|合格|100%|100%
+69900563-&gt;69900486|合格|100%|100%
+69900563-&gt;69900498|合格|100%|100%
+69900563-&gt;69900510|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>65000827-TV
+69900062-MOBILE
+69900068-MOBILE
+69900066-MOBILE
+69900087-MOBILE
+69900039-MOBILE
+69900063-MOBILE
+69900978-MOBILE
+69900095-MOBILE
+69900079-MOBILE
+69900069-MOBILE
+69900049-MOBILE
+69900064-MOBILE
+69900046-MOBILE
+69900045-MOBILE
+69900041-MOBILE
+69900044-MOBILE
+69900052-MOBILE
+69900050-MOBILE
+69900043-MOBILE
+69900097-MOBILE
+69900054-MOBILE
+69900090-MOBILE
+69900042-MOBILE
+69900080-MOBILE
+69900051-MOBILE
+69900074-MOBILE
+69900077-MOBILE
+69900058-MOBILE
+69900083-MOBILE
+69900075-MOBILE
+69900031-MOBILE
+69900060-MOBILE
+69900061-MOBILE
+69900076-MOBILE
+69900106-MOBILE
+69900102-MOBILE
+69900110-MOBILE
+69900059-MOBILE
+69900078-MOBILE
+69900034-MOBILE
+69900103-MOBILE
+69900036-MOBILE
+69900033-MOBILE
+69900104-MOBILE
+69900096-MOBILE
+69900092-MOBILE
+69900107-MOBILE
+69900067-MOBILE</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>2019-01-16 17:27:12</t>
+  </si>
+  <si>
+    <t>丢包:97%
+空音包:93%</t>
+  </si>
+  <si>
+    <t>0小时53分钟59秒</t>
+  </si>
+  <si>
+    <t>61001336-22层会议室
+63015338-17705190122
+63015090-测试</t>
+  </si>
+  <si>
+    <t>61001336-TV
+63015338-C-me
+63015090-C-me</t>
+  </si>
+  <si>
+    <t>2019-01-16 15:46:26</t>
+  </si>
+  <si>
+    <t>137小时37分钟10秒</t>
+  </si>
+  <si>
+    <t>67003103-录像助理3
+67003086-网络支撑响应中心
+67003075-网络部
+67003101-投屏助理
+67003041-苏忠彬</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%
+65000592-&gt;69900297|合格|99%|97%
+65000592-&gt;69900307|不合格|94%|79%
+65000592-&gt;69900316|合格|100%|100%
+65000592-&gt;69900329|合格|100%|100%
+65000592-&gt;69900332|不合格|95%|86%</t>
+  </si>
+  <si>
+    <t>67003103-MOBILE
+67003086-IOS_KESHI
+67003075-IOS_KESHI
+67003101-MOBILE
+67003041-IOS_KESHI</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>2019-01-16 15:06:27</t>
+  </si>
+  <si>
+    <t>60015085-M1plus
+60015092-M1plus
+60015090-M1plus</t>
+  </si>
+  <si>
+    <t>60015085-临城光伏电站
+60015092-南大港电场
+60015090-迁西电场</t>
+  </si>
+  <si>
+    <t>2小时33分钟10秒</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:47:03</t>
+  </si>
+  <si>
+    <t>60610147-M3Z
+65000836-M3Z
+60610148-M3Z</t>
+  </si>
+  <si>
+    <t>60610147-6#
+65000836-上海分公司
+60610148-青村幼儿园分部</t>
+  </si>
+  <si>
+    <t>1小时15分钟29秒</t>
+  </si>
+  <si>
+    <t>2019-01-16 12:36:16</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:17:06</t>
+  </si>
+  <si>
+    <t>65000592-&gt;69900372|合格|100%|100%
+69900372-&gt;65000592|合格|100%|100%
+60011116-&gt;63015019|合格|100%|94%
+63015019-&gt;60011116|合格|100%|94%</t>
+  </si>
+  <si>
+    <t>0小时14分钟53秒</t>
+  </si>
+  <si>
+    <t>69900348-盐城
+69900371-江苏分公司
+65000592-江苏分公司会议室</t>
+  </si>
+  <si>
+    <t>丢包:100%
+空音包:97%</t>
+  </si>
+  <si>
+    <t>69900348-MOBILE
+69900371-MOBILE
+65000592-TV</t>
   </si>
 </sst>
 </file>
@@ -551,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,31 +1702,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30450675</v>
+        <v>60450849</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -640,37 +1740,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>20450657</v>
+        <v>50450729</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -678,37 +1778,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20450649</v>
+        <v>30450675</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -716,37 +1816,607 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>20450657</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20450649</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
         <v>60450621</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="L7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20450397</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30450351</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40450309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10450265</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50450137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20450097</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30450069</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90449963</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="n">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="B16" t="n">
+        <v>30449905</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
+      <c r="B17" t="n">
+        <v>80449887</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>70449883</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40449805</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40449731</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/MeetingDaily.xlsx
+++ b/MeetingDaily.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>用户列表</t>
   </si>
@@ -53,94 +53,1191 @@
     <t>持续时间</t>
   </si>
   <si>
-    <t>60011115-监理部
-61000890-广州18号线监理站
-63013292-张呼监理</t>
-  </si>
-  <si>
-    <t>60011115-M1plus
-61000890-M1plus
-63013292-ANDROID_JIHY</t>
+    <t>63015390-王永平
+63013533-南宁办顾江波
+60610182-百卓程斌
+63015388-张慧斌
+63013528-政府系统部 王立
+63013563-商业渠道合作岳
+63013566-于永生
+63013539-李景庄
+63015391-宋福村
+63013521-昆明办-于明波
+63013526-广州办事处喻智坚
+63013696-何红
+63013550-苏州办朱勇
+63013530-郭辉荣
+63013626-苏州办李海龙
+63013537-百卓刘宏远
+63013532-田磊
+63013576-公安系统部-孙浩
+63013565-济南联络处邢培新
+63013595-山东张继伟
+63015392-王丽霞
+63013527-百卓沈阳周振宇
+63013557-高万军
+63013523-上海办陆彧
+63015187-吕亚芹
+63013570-百卓 汪涛
+63013629-武汉杜峥
+63013625-河南周志飞
+63013562-Fiona.Z
+63013531-新疆办廖恒
+63013572-福建办-秦涛
+63013577-政府系统部刘明</t>
+  </si>
+  <si>
+    <t>63015390-ANDROID_JIHY
+63013533-ANDROID_JIHY
+60610182-M3Z
+63015388-IOS_KESHI
+63013528-ANDROID_JIHY
+63013563-ANDROID_JIHY
+63013566-ANDROID_JIHY
+63013539-IOS_KESHI
+63015391-ANDROID_JIHY
+63013521-ANDROID_JIHY
+63013526-ANDROID_JIHY
+63013696-ANDROID_JIHY
+63013550-ANDROID_JIHY
+63013530-ANDROID_JIHY
+63013626-ANDROID_JIHY
+63013537-ANDROID_JIHY
+63013532-ANDROID_JIHY
+63013576-ANDROID_JIHY
+63013565-ANDROID_JIHY
+63013595-ANDROID_JIHY
+63015392-IOS_KESHI
+63013527-IOS_KESHI
+63013557-ANDROID_JIHY
+63013523-ANDROID_JIHY
+63015187-ANDROID_JIHY
+63013570-IOS_KESHI
+63013629-IOS_KESHI
+63013625-ANDROID_JIHY
+63013562-ANDROID_JIHY
+63013531-ANDROID_JIHY
+63013572-IOS_KESHI
+63013577-IOS_KESHI</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:91%</t>
+  </si>
+  <si>
+    <t>丢包:100%
+空音包:100%</t>
+  </si>
+  <si>
+    <t>丢包:63%
+空音包:0%</t>
+  </si>
+  <si>
+    <t>60610182-&gt;63013521|合格|99%|99%
+60610182-&gt;63013523|合格|100%|99%
+60610182-&gt;63013526|合格|98%|97%
+60610182-&gt;63013527|合格|99%|99%
+60610182-&gt;63013528|合格|99%|97%
+60610182-&gt;63013530|合格|97%|96%
+60610182-&gt;63013531|合格|100%|97%
+60610182-&gt;63013532|合格|99%|97%
+60610182-&gt;63013533|合格|96%|95%
+60610182-&gt;63013537|合格|99%|98%
+60610182-&gt;63013539|合格|100%|100%
+60610182-&gt;63013550|合格|100%|100%
+60610182-&gt;63013557|不合格|98%|92%
+60610182-&gt;63013562|合格|99%|98%
+60610182-&gt;63013563|合格|99%|98%
+60610182-&gt;63013565|合格|99%|99%
+60610182-&gt;63013566|合格|100%|99%
+60610182-&gt;63013570|合格|100%|100%
+60610182-&gt;63013572|合格|100%|100%
+60610182-&gt;63013576|合格|100%|100%
+60610182-&gt;63013577|合格|100%|100%
+60610182-&gt;63013595|合格|99%|98%
+60610182-&gt;63013625|合格|99%|99%
+60610182-&gt;63013626|合格|99%|99%
+60610182-&gt;63013629|合格|100%|100%
+60610182-&gt;63013696|合格|99%|99%
+60610182-&gt;63015187|合格|100%|100%
+60610182-&gt;63015388|合格|99%|99%
+60610182-&gt;63015390|合格|99%|97%
+60610182-&gt;63015391|合格|99%|98%
+60610182-&gt;63015392|合格|99%|100%
+63013521-&gt;60610182|合格|100%|100%
+63013521-&gt;63013526|合格|95%|91%
+63013521-&gt;63013527|合格|100%|100%
+63013521-&gt;63013528|合格|100%|96%
+63013521-&gt;63013530|合格|100%|100%
+63013521-&gt;63013531|合格|100%|100%
+63013521-&gt;63013532|合格|100%|100%
+63013521-&gt;63013533|合格|98%|96%
+63013521-&gt;63013537|合格|100%|100%
+63013521-&gt;63013539|合格|100%|100%
+63013521-&gt;63013557|合格|97%|77%
+63013521-&gt;63013562|合格|100%|96%
+63013521-&gt;63013563|合格|100%|100%
+63013521-&gt;63013565|合格|100%|100%
+63013521-&gt;63013566|合格|100%|100%
+63013521-&gt;63013577|合格|100%|100%
+63013521-&gt;63013595|合格|100%|100%
+63013521-&gt;63013625|合格|98%|92%
+63013521-&gt;63013626|合格|100%|100%
+63013521-&gt;63013629|合格|100%|100%
+63013521-&gt;63013696|合格|100%|100%
+63013521-&gt;63015390|合格|100%|96%
+63013521-&gt;63015391|合格|100%|100%
+63013521-&gt;63015392|合格|100%|100%
+63013526-&gt;60610182|合格|100%|100%
+63013526-&gt;63013521|合格|100%|98%
+63013526-&gt;63013523|合格|100%|100%
+63013526-&gt;63013527|合格|100%|100%
+63013526-&gt;63013530|合格|100%|98%
+63013526-&gt;63013531|合格|100%|96%
+63013526-&gt;63013532|合格|100%|100%
+63013526-&gt;63013533|合格|99%|98%
+63013526-&gt;63013537|合格|100%|100%
+63013526-&gt;63013539|合格|100%|100%
+63013526-&gt;63013550|合格|100%|100%
+63013526-&gt;63013562|合格|100%|96%
+63013526-&gt;63013563|合格|100%|100%
+63013526-&gt;63013565|合格|99%|100%
+63013526-&gt;63013566|合格|100%|100%
+63013526-&gt;63013570|合格|100%|100%
+63013526-&gt;63013576|合格|100%|98%
+63013526-&gt;63013595|合格|99%|98%
+63013526-&gt;63013625|合格|100%|98%
+63013526-&gt;63013626|合格|100%|100%
+63013526-&gt;63013629|合格|100%|100%
+63013526-&gt;63013696|合格|100%|100%
+63013526-&gt;63015388|合格|100%|100%
+63013526-&gt;63015390|合格|100%|100%
+63013526-&gt;63015391|合格|100%|100%
+63013526-&gt;63015392|合格|100%|100%
+63013527-&gt;60610182|合格|100%|100%
+63013527-&gt;63013521|合格|100%|50%
+63013527-&gt;63013526|合格|100%|50%
+63013527-&gt;63013528|合格|100%|0%
+63013527-&gt;63013530|合格|100%|0%
+63013527-&gt;63013531|合格|100%|100%
+63013527-&gt;63013532|合格|100%|0%
+63013527-&gt;63013533|合格|100%|75%
+63013527-&gt;63013537|合格|100%|75%
+63013527-&gt;63013539|合格|100%|100%
+63013527-&gt;63013550|合格|100%|0%
+63013527-&gt;63013557|合格|100%|66%
+63013527-&gt;63013563|合格|100%|0%
+63013527-&gt;63013565|合格|100%|66%
+63013527-&gt;63013566|合格|100%|50%
+63013527-&gt;63013577|合格|100%|100%
+63013527-&gt;63013595|合格|100%|100%
+63013527-&gt;63013626|合格|100%|50%
+63013527-&gt;63013629|合格|100%|100%
+63013527-&gt;63013696|合格|100%|75%
+63013527-&gt;63015388|合格|100%|100%
+63013527-&gt;63015390|合格|100%|66%
+63013527-&gt;63015391|合格|100%|50%
+63013527-&gt;63015392|合格|100%|100%
+63013528-&gt;60610182|合格|100%|100%
+63013528-&gt;63015388|合格|100%|100%
+63013530-&gt;60610182|合格|97%|97%
+63013530-&gt;63013521|合格|97%|97%
+63013530-&gt;63013526|合格|97%|94%
+63013530-&gt;63013528|合格|96%|100%
+63013530-&gt;63013532|合格|97%|95%
+63013530-&gt;63013533|合格|97%|97%
+63013530-&gt;63013537|合格|98%|96%
+63013530-&gt;63013539|合格|98%|96%
+63013530-&gt;63013550|合格|97%|100%
+63013530-&gt;63013563|合格|88%|75%
+63013530-&gt;63013565|合格|100%|100%
+63013530-&gt;63013566|合格|96%|96%
+63013530-&gt;63013576|合格|91%|83%
+63013530-&gt;63013626|合格|96%|96%
+63013530-&gt;63013696|合格|98%|97%
+63013530-&gt;63015388|合格|97%|90%
+63013530-&gt;63015391|合格|95%|76%
+63013531-&gt;60610182|合格|100%|100%
+63013531-&gt;63013521|合格|100%|100%
+63013531-&gt;63013526|合格|100%|66%
+63013531-&gt;63013527|合格|100%|100%
+63013531-&gt;63013528|合格|100%|75%
+63013531-&gt;63013530|合格|100%|75%
+63013531-&gt;63013532|合格|87%|100%
+63013531-&gt;63013533|合格|100%|100%
+63013531-&gt;63013537|合格|100%|100%
+63013531-&gt;63013539|合格|100%|100%
+63013531-&gt;63013557|合格|100%|50%
+63013531-&gt;63013562|合格|100%|100%
+63013531-&gt;63013563|合格|100%|75%
+63013531-&gt;63013565|合格|100%|75%
+63013531-&gt;63013566|合格|100%|75%
+63013531-&gt;63013577|合格|100%|100%
+63013531-&gt;63013595|合格|100%|66%
+63013531-&gt;63013626|合格|100%|100%
+63013531-&gt;63013629|合格|100%|100%
+63013531-&gt;63013696|合格|100%|75%
+63013531-&gt;63015390|合格|100%|100%
+63013531-&gt;63015391|合格|100%|75%
+63013531-&gt;63015392|合格|100%|66%
+63013533-&gt;60610182|合格|90%|77%
+63013533-&gt;63013521|合格|95%|80%
+63013533-&gt;63013526|合格|91%|66%
+63013533-&gt;63013527|合格|95%|87%
+63013533-&gt;63013528|合格|95%|77%
+63013533-&gt;63013530|合格|100%|100%
+63013533-&gt;63013531|合格|95%|70%
+63013533-&gt;63013532|合格|100%|75%
+63013533-&gt;63013539|合格|95%|87%
+63013533-&gt;63013557|合格|95%|87%
+63013533-&gt;63013562|合格|96%|72%
+63013533-&gt;63013563|合格|95%|83%
+63013533-&gt;63013566|合格|100%|88%
+63013533-&gt;63013577|合格|95%|87%
+63013533-&gt;63013595|合格|95%|93%
+63013533-&gt;63013626|合格|95%|74%
+63013533-&gt;63013629|合格|95%|83%
+63013533-&gt;63013696|合格|95%|77%
+63013533-&gt;63015390|合格|95%|70%
+63013533-&gt;63015391|合格|95%|77%
+63013533-&gt;63015392|合格|95%|87%
+63013537-&gt;60610182|合格|100%|92%
+63013537-&gt;63013521|合格|100%|100%
+63013537-&gt;63013523|合格|100%|100%
+63013537-&gt;63013526|合格|100%|100%
+63013537-&gt;63013527|合格|100%|84%
+63013537-&gt;63013528|合格|100%|100%
+63013537-&gt;63013530|合格|100%|100%
+63013537-&gt;63013531|合格|100%|100%
+63013537-&gt;63013532|合格|100%|100%
+63013537-&gt;63013533|合格|100%|84%
+63013537-&gt;63013539|合格|100%|84%
+63013537-&gt;63013550|合格|100%|80%
+63013537-&gt;63013557|合格|100%|100%
+63013537-&gt;63013562|合格|100%|92%
+63013537-&gt;63013563|合格|100%|100%
+63013537-&gt;63013565|合格|100%|84%
+63013537-&gt;63013566|合格|100%|90%
+63013537-&gt;63013570|合格|100%|80%
+63013537-&gt;63013572|合格|100%|80%
+63013537-&gt;63013595|合格|100%|84%
+63013537-&gt;63013626|合格|100%|100%
+63013537-&gt;63013629|合格|100%|84%
+63013537-&gt;63013696|合格|100%|92%
+63013537-&gt;63015388|合格|100%|71%
+63013537-&gt;63015390|合格|100%|92%
+63013537-&gt;63015391|合格|100%|92%
+63013537-&gt;63015392|合格|100%|84%
+63013539-&gt;60610182|合格|100%|100%
+63013539-&gt;63013521|合格|100%|90%
+63013539-&gt;63013523|合格|100%|90%
+63013539-&gt;63013526|合格|100%|90%
+63013539-&gt;63013527|合格|100%|100%
+63013539-&gt;63013530|合格|100%|90%
+63013539-&gt;63013531|合格|100%|90%
+63013539-&gt;63013532|合格|100%|80%
+63013539-&gt;63013533|合格|100%|100%
+63013539-&gt;63013537|合格|100%|90%
+63013539-&gt;63013550|合格|100%|90%
+63013539-&gt;63013557|合格|100%|77%
+63013539-&gt;63013562|合格|100%|90%
+63013539-&gt;63013563|合格|100%|90%
+63013539-&gt;63013565|合格|100%|90%
+63013539-&gt;63013566|合格|100%|83%
+63013539-&gt;63013570|合格|100%|100%
+63013539-&gt;63013576|合格|100%|90%
+63013539-&gt;63013595|合格|100%|90%
+63013539-&gt;63013625|合格|94%|88%
+63013539-&gt;63013626|合格|100%|0%
+63013539-&gt;63013629|合格|100%|100%
+63013539-&gt;63013696|合格|100%|90%
+63013539-&gt;63015388|合格|100%|100%
+63013539-&gt;63015391|合格|100%|90%
+63013539-&gt;63015392|合格|100%|100%
+63013550-&gt;60610182|合格|100%|100%
+63013550-&gt;63013521|合格|100%|97%
+63013550-&gt;63013523|合格|100%|100%
+63013550-&gt;63013526|合格|100%|97%
+63013550-&gt;63013527|合格|97%|97%
+63013550-&gt;63013528|合格|100%|100%
+63013550-&gt;63013530|合格|97%|97%
+63013550-&gt;63013531|合格|100%|100%
+63013550-&gt;63013532|合格|100%|86%
+63013550-&gt;63013533|合格|100%|100%
+63013550-&gt;63013537|合格|100%|100%
+63013550-&gt;63013539|合格|100%|100%
+63013550-&gt;63013557|合格|98%|81%
+63013550-&gt;63013562|合格|100%|100%
+63013550-&gt;63013563|合格|100%|100%
+63013550-&gt;63013565|合格|100%|100%
+63013550-&gt;63013566|合格|100%|100%
+63013550-&gt;63013570|合格|100%|100%
+63013550-&gt;63013576|合格|100%|100%
+63013550-&gt;63013595|合格|100%|95%
+63013550-&gt;63013625|合格|97%|97%
+63013550-&gt;63013626|合格|100%|100%
+63013550-&gt;63013629|合格|100%|100%
+63013550-&gt;63013696|合格|100%|100%
+63013550-&gt;63015388|合格|100%|100%
+63013550-&gt;63015391|合格|100%|100%
+63013550-&gt;63015392|合格|100%|100%
+63013562-&gt;60610182|合格|100%|100%
+63013562-&gt;63013521|合格|100%|97%
+63013562-&gt;63013526|合格|88%|92%
+63013562-&gt;63013527|合格|100%|100%
+63013562-&gt;63013528|合格|100%|100%
+63013562-&gt;63013531|合格|98%|94%
+63013562-&gt;63013533|合格|96%|91%
+63013562-&gt;63013537|合格|99%|100%
+63013562-&gt;63013539|合格|100%|100%
+63013562-&gt;63013557|合格|100%|100%
+63013562-&gt;63013563|合格|100%|100%
+63013562-&gt;63013565|合格|100%|100%
+63013562-&gt;63013566|合格|100%|100%
+63013562-&gt;63013577|合格|100%|100%
+63013562-&gt;63013595|合格|99%|97%
+63013562-&gt;63013626|合格|100%|100%
+63013562-&gt;63013629|合格|100%|100%
+63013562-&gt;63013696|合格|100%|98%
+63013562-&gt;63015390|合格|99%|98%
+63013562-&gt;63015391|合格|100%|100%
+63013562-&gt;63015392|合格|100%|100%
+63013563-&gt;60610182|合格|95%|86%
+63013563-&gt;63013521|合格|100%|87%
+63013563-&gt;63013523|合格|100%|100%
+63013563-&gt;63013526|合格|100%|66%
+63013563-&gt;63013527|合格|100%|100%
+63013563-&gt;63013528|合格|96%|77%
+63013563-&gt;63013530|合格|94%|87%
+63013563-&gt;63013531|合格|100%|100%
+63013563-&gt;63013532|合格|100%|100%
+63013563-&gt;63013533|合格|95%|76%
+63013563-&gt;63013537|合格|94%|100%
+63013563-&gt;63013539|合格|100%|100%
+63013563-&gt;63013550|合格|100%|80%
+63013563-&gt;63013557|合格|100%|50%
+63013563-&gt;63013562|合格|100%|83%
+63013563-&gt;63013565|合格|100%|100%
+63013563-&gt;63013566|合格|96%|60%
+63013563-&gt;63013570|合格|100%|100%
+63013563-&gt;63013576|合格|100%|100%
+63013563-&gt;63013577|合格|100%|100%
+63013563-&gt;63013595|合格|100%|85%
+63013563-&gt;63013625|合格|100%|100%
+63013563-&gt;63013626|合格|100%|100%
+63013563-&gt;63013629|合格|100%|100%
+63013563-&gt;63013696|合格|100%|85%
+63013563-&gt;63015388|合格|94%|80%
+63013563-&gt;63015390|合格|100%|66%
+63013563-&gt;63015391|合格|100%|87%
+63013563-&gt;63015392|合格|100%|100%
+63013565-&gt;60610182|合格|100%|100%
+63013565-&gt;63013521|合格|100%|100%
+63013565-&gt;63013523|合格|100%|100%
+63013565-&gt;63013526|合格|100%|95%
+63013565-&gt;63013527|合格|100%|100%
+63013565-&gt;63013528|合格|100%|100%
+63013565-&gt;63013530|合格|100%|100%
+63013565-&gt;63013531|合格|100%|100%
+63013565-&gt;63013532|合格|100%|100%
+63013565-&gt;63013533|合格|85%|77%
+63013565-&gt;63013537|合格|100%|100%
+63013565-&gt;63013539|合格|100%|100%
+63013565-&gt;63013550|合格|100%|95%
+63013565-&gt;63013557|合格|100%|100%
+63013565-&gt;63013562|合格|100%|100%
+63013565-&gt;63013563|合格|100%|100%
+63013565-&gt;63013566|合格|100%|100%
+63013565-&gt;63013570|合格|100%|100%
+63013565-&gt;63013572|合格|100%|100%
+63013565-&gt;63013595|合格|100%|95%
+63013565-&gt;63013626|合格|100%|100%
+63013565-&gt;63013629|合格|100%|100%
+63013565-&gt;63013696|合格|100%|100%
+63013565-&gt;63015388|合格|100%|100%
+63013565-&gt;63015390|合格|100%|100%
+63013565-&gt;63015391|合格|100%|95%
+63013565-&gt;63015392|合格|100%|100%
+63013566-&gt;60610182|合格|100%|97%
+63013566-&gt;63013521|合格|98%|92%
+63013566-&gt;63013523|合格|100%|100%
+63013566-&gt;63013526|合格|100%|100%
+63013566-&gt;63013527|合格|100%|100%
+63013566-&gt;63013528|合格|100%|96%
+63013566-&gt;63013530|合格|100%|100%
+63013566-&gt;63013531|合格|100%|100%
+63013566-&gt;63013532|合格|100%|100%
+63013566-&gt;63013533|合格|97%|86%
+63013566-&gt;63013537|合格|100%|100%
+63013566-&gt;63013539|合格|100%|100%
+63013566-&gt;63013550|合格|100%|100%
+63013566-&gt;63013557|合格|100%|100%
+63013566-&gt;63013562|合格|100%|100%
+63013566-&gt;63013563|合格|98%|100%
+63013566-&gt;63013565|合格|100%|100%
+63013566-&gt;63013570|合格|100%|100%
+63013566-&gt;63013576|合格|100%|100%
+63013566-&gt;63013577|合格|100%|100%
+63013566-&gt;63013595|合格|100%|100%
+63013566-&gt;63013625|合格|100%|100%
+63013566-&gt;63013626|合格|100%|100%
+63013566-&gt;63013629|合格|100%|100%
+63013566-&gt;63013696|合格|98%|96%
+63013566-&gt;63015187|合格|100%|100%
+63013566-&gt;63015388|合格|100%|100%
+63013566-&gt;63015390|合格|100%|100%
+63013566-&gt;63015391|合格|95%|85%
+63013566-&gt;63015392|合格|100%|100%
+63013576-&gt;60610182|合格|100%|100%
+63013576-&gt;63013521|合格|100%|100%
+63013576-&gt;63013526|合格|100%|100%
+63013576-&gt;63013528|合格|100%|100%
+63013576-&gt;63013530|合格|100%|100%
+63013576-&gt;63013532|合格|100%|100%
+63013576-&gt;63013533|合格|100%|100%
+63013576-&gt;63013537|合格|100%|100%
+63013576-&gt;63013539|合格|100%|100%
+63013576-&gt;63013550|合格|100%|100%
+63013576-&gt;63013563|合格|100%|100%
+63013576-&gt;63013566|合格|100%|100%
+63013576-&gt;63013595|合格|100%|100%
+63013576-&gt;63013626|合格|100%|100%
+63013576-&gt;63013696|合格|100%|100%
+63013576-&gt;63015388|合格|100%|100%
+63013576-&gt;63015391|合格|100%|100%
+63013576-&gt;63015392|合格|100%|100%
+63013577-&gt;60610182|合格|100%|100%
+63013577-&gt;63013521|合格|100%|80%
+63013577-&gt;63013526|合格|63%|75%
+63013577-&gt;63013527|合格|100%|100%
+63013577-&gt;63013531|合格|100%|80%
+63013577-&gt;63013537|合格|100%|66%
+63013577-&gt;63013539|合格|100%|100%
+63013577-&gt;63013557|合格|100%|80%
+63013577-&gt;63013562|合格|100%|80%
+63013577-&gt;63013563|合格|100%|80%
+63013577-&gt;63013565|合格|100%|83%
+63013577-&gt;63013566|合格|100%|83%
+63013577-&gt;63013595|合格|100%|80%
+63013577-&gt;63013626|合格|100%|83%
+63013577-&gt;63013629|合格|100%|100%
+63013577-&gt;63013696|合格|100%|80%
+63013577-&gt;63015390|合格|100%|83%
+63013577-&gt;63015391|合格|100%|80%
+63013577-&gt;63015392|合格|100%|100%
+63013595-&gt;60610182|合格|100%|96%
+63013595-&gt;63013521|合格|100%|94%
+63013595-&gt;63013523|合格|100%|57%
+63013595-&gt;63013526|合格|100%|94%
+63013595-&gt;63013527|合格|100%|98%
+63013595-&gt;63013530|合格|100%|71%
+63013595-&gt;63013531|合格|100%|92%
+63013595-&gt;63013532|合格|100%|57%
+63013595-&gt;63013533|合格|100%|93%
+63013595-&gt;63013537|合格|100%|94%
+63013595-&gt;63013539|合格|100%|98%
+63013595-&gt;63013550|合格|100%|85%
+63013595-&gt;63013557|合格|100%|98%
+63013595-&gt;63013562|合格|100%|85%
+63013595-&gt;63013563|合格|100%|96%
+63013595-&gt;63013565|合格|100%|91%
+63013595-&gt;63013566|合格|100%|91%
+63013595-&gt;63013570|合格|100%|85%
+63013595-&gt;63013576|合格|100%|85%
+63013595-&gt;63013577|合格|100%|100%
+63013595-&gt;63013625|合格|100%|100%
+63013595-&gt;63013626|合格|100%|94%
+63013595-&gt;63013629|合格|100%|96%
+63013595-&gt;63013696|合格|100%|92%
+63013595-&gt;63015388|合格|100%|85%
+63013595-&gt;63015390|合格|100%|96%
+63013595-&gt;63015391|合格|100%|96%
+63013595-&gt;63015392|合格|100%|98%
+63013625-&gt;60610182|合格|100%|100%
+63013625-&gt;63013521|合格|100%|100%
+63013625-&gt;63013523|合格|100%|50%
+63013625-&gt;63013526|合格|100%|50%
+63013625-&gt;63013527|合格|100%|100%
+63013625-&gt;63013530|合格|100%|100%
+63013625-&gt;63013531|合格|100%|100%
+63013625-&gt;63013532|合格|100%|50%
+63013625-&gt;63013533|合格|100%|50%
+63013625-&gt;63013537|合格|100%|100%
+63013625-&gt;63013539|合格|100%|100%
+63013625-&gt;63013550|合格|100%|100%
+63013625-&gt;63013557|合格|100%|100%
+63013625-&gt;63013562|合格|100%|50%
+63013625-&gt;63013563|合格|100%|50%
+63013625-&gt;63013565|合格|100%|100%
+63013625-&gt;63013566|合格|100%|50%
+63013625-&gt;63013570|合格|100%|100%
+63013625-&gt;63013576|合格|100%|50%
+63013625-&gt;63013595|合格|100%|50%
+63013625-&gt;63013626|合格|100%|100%
+63013625-&gt;63013629|合格|100%|100%
+63013625-&gt;63013696|合格|100%|50%
+63013625-&gt;63015388|合格|100%|100%
+63013625-&gt;63015390|合格|100%|100%
+63013625-&gt;63015391|合格|100%|50%
+63013625-&gt;63015392|合格|100%|100%
+63013626-&gt;60610182|合格|100%|100%
+63013626-&gt;63013521|合格|100%|100%
+63013626-&gt;63013526|合格|97%|100%
+63013626-&gt;63013527|合格|100%|100%
+63013626-&gt;63013528|合格|100%|91%
+63013626-&gt;63013530|合格|97%|94%
+63013626-&gt;63013531|合格|100%|75%
+63013626-&gt;63013532|合格|100%|87%
+63013626-&gt;63013533|合格|100%|97%
+63013626-&gt;63013537|合格|100%|100%
+63013626-&gt;63013539|合格|100%|100%
+63013626-&gt;63013550|合格|100%|90%
+63013626-&gt;63013557|合格|100%|100%
+63013626-&gt;63013562|合格|100%|100%
+63013626-&gt;63013563|合格|89%|80%
+63013626-&gt;63013565|合格|100%|93%
+63013626-&gt;63013566|合格|100%|100%
+63013626-&gt;63013576|合格|100%|100%
+63013626-&gt;63013577|合格|100%|100%
+63013626-&gt;63013595|合格|100%|100%
+63013626-&gt;63013625|合格|100%|100%
+63013626-&gt;63013629|合格|100%|100%
+63013626-&gt;63013696|合格|100%|100%
+63013626-&gt;63015388|合格|100%|100%
+63013626-&gt;63015390|合格|100%|100%
+63013626-&gt;63015391|合格|100%|93%
+63013626-&gt;63015392|合格|100%|100%
+63013696-&gt;60610182|合格|100%|100%
+63013696-&gt;63013521|合格|100%|95%
+63013696-&gt;63013526|合格|100%|100%
+63013696-&gt;63013527|合格|100%|100%
+63013696-&gt;63013531|合格|100%|91%
+63013696-&gt;63013533|合格|100%|95%
+63013696-&gt;63013537|合格|100%|100%
+63013696-&gt;63013539|合格|100%|100%
+63013696-&gt;63013557|合格|100%|91%
+63013696-&gt;63013563|合格|100%|100%
+63013696-&gt;63013565|合格|100%|100%
+63013696-&gt;63013566|合格|100%|100%
+63013696-&gt;63013577|合格|100%|100%
+63013696-&gt;63013626|合格|100%|95%
+63013696-&gt;63015390|合格|100%|100%
+63013696-&gt;63015391|合格|100%|100%
+63013696-&gt;63015392|合格|100%|100%
+63015388-&gt;60610182|合格|100%|100%
+63015390-&gt;60610182|合格|100%|100%
+63015390-&gt;63013521|合格|100%|100%
+63015390-&gt;63013526|合格|100%|100%
+63015390-&gt;63013527|合格|100%|100%
+63015390-&gt;63013528|合格|100%|100%
+63015390-&gt;63013530|合格|100%|100%
+63015390-&gt;63013531|合格|100%|100%
+63015390-&gt;63013532|合格|100%|87%
+63015390-&gt;63013533|合格|100%|87%
+63015390-&gt;63013537|合格|100%|83%
+63015390-&gt;63013539|合格|100%|100%
+63015390-&gt;63013557|合格|100%|100%
+63015390-&gt;63013562|合格|100%|100%
+63015390-&gt;63013563|合格|100%|100%
+63015390-&gt;63013565|合格|100%|100%
+63015390-&gt;63013566|合格|100%|100%
+63015390-&gt;63013577|合格|100%|100%
+63015390-&gt;63013595|合格|100%|100%
+63015390-&gt;63013626|合格|100%|87%
+63015390-&gt;63013629|合格|100%|100%
+63015390-&gt;63013696|合格|100%|100%
+63015390-&gt;63015391|合格|100%|100%
+63015390-&gt;63015392|合格|100%|100%
+63015391-&gt;60610182|合格|100%|100%
+63015391-&gt;63013521|合格|100%|100%
+63015391-&gt;63013526|合格|100%|100%
+63015391-&gt;63013527|合格|100%|100%
+63015391-&gt;63013528|合格|100%|66%
+63015391-&gt;63013530|合格|100%|66%
+63015391-&gt;63013531|合格|100%|100%
+63015391-&gt;63013532|合格|100%|100%
+63015391-&gt;63013533|合格|100%|66%
+63015391-&gt;63013537|合格|100%|100%
+63015391-&gt;63013539|合格|100%|100%
+63015391-&gt;63013557|合格|100%|100%
+63015391-&gt;63013562|合格|100%|100%
+63015391-&gt;63013563|合格|100%|100%
+63015391-&gt;63013565|合格|100%|100%
+63015391-&gt;63013570|合格|100%|100%
+63015391-&gt;63013595|合格|100%|66%
+63015391-&gt;63013625|合格|100%|100%
+63015391-&gt;63013626|合格|100%|100%
+63015391-&gt;63013629|合格|100%|100%
+63015391-&gt;63013696|合格|100%|66%
+63015391-&gt;63015390|合格|100%|100%
+63015391-&gt;63015392|合格|100%|100%
+63015392-&gt;60610182|合格|100%|93%
+63015392-&gt;63013521|合格|100%|78%
+63015392-&gt;63013526|合格|100%|89%
+63015392-&gt;63013527|合格|100%|100%
+63015392-&gt;63013528|合格|100%|80%
+63015392-&gt;63013530|合格|100%|50%
+63015392-&gt;63013531|合格|100%|88%
+63015392-&gt;63013532|合格|100%|80%
+63015392-&gt;63013533|合格|100%|70%
+63015392-&gt;63013537|合格|100%|89%
+63015392-&gt;63013539|合格|100%|100%
+63015392-&gt;63013550|合格|100%|55%
+63015392-&gt;63013557|合格|100%|88%
+63015392-&gt;63013563|合格|92%|69%
+63015392-&gt;63013566|合格|100%|73%
+63015392-&gt;63013576|合格|100%|100%
+63015392-&gt;63013577|合格|100%|100%
+63015392-&gt;63013595|合格|100%|60%
+63015392-&gt;63013626|合格|100%|84%
+63015392-&gt;63013696|合格|100%|84%
+63015392-&gt;63015388|合格|100%|100%
+63015392-&gt;63015390|合格|100%|88%
+63015392-&gt;63015391|合格|100%|84%</t>
+  </si>
+  <si>
+    <t>2019-01-29 11:34:43</t>
+  </si>
+  <si>
+    <t>6小时11分钟45秒</t>
+  </si>
+  <si>
+    <t>99%</t>
+  </si>
+  <si>
+    <t>60020122-新疆分公司
+63010873-邢宏帅
+63010565-孔俊鹏
+63010391-梁恺
+63011538-赵洪磊
+63011561-l
+63010552-李聪</t>
+  </si>
+  <si>
+    <t>60020122-M1plus
+63010873-IOS_KESHI
+63010565-IOS_KESHI
+63010391-IOS_KESHI
+63011538-IOS_KESHI
+63011561-IOS_KESHI
+63010552-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>丢包:95%
+空音包:96%</t>
+  </si>
+  <si>
+    <t>丢包:66%
+空音包:75%</t>
+  </si>
+  <si>
+    <t>60020122-&gt;63010391|合格|99%|100%
+60020122-&gt;63010552|合格|99%|99%
+60020122-&gt;63010565|合格|99%|99%
+60020122-&gt;63010873|不合格|91%|97%
+60020122-&gt;63011538|合格|99%|99%
+60020122-&gt;63011561|不合格|88%|97%
+63010391-&gt;60020122|合格|100%|75%
+63010391-&gt;63010552|合格|100%|100%
+63010391-&gt;63010565|合格|100%|100%
+63010391-&gt;63010873|合格|100%|100%
+63010391-&gt;63011538|合格|100%|100%
+63010391-&gt;63011561|合格|100%|100%
+63010565-&gt;60020122|合格|75%|87%
+63010565-&gt;63010391|合格|80%|80%
+63010565-&gt;63010873|合格|87%|87%
+63010565-&gt;63011538|合格|80%|100%
+63010565-&gt;63011561|合格|66%|100%
+63010873-&gt;60020122|合格|100%|100%
+63010873-&gt;63010391|合格|97%|100%
+63010873-&gt;63010552|合格|100%|91%
+63010873-&gt;63010565|合格|100%|97%
+63010873-&gt;63011538|合格|100%|100%
+63010873-&gt;63011561|合格|100%|88%
+63011561-&gt;60020122|合格|100%|100%
+63011561-&gt;63010391|合格|100%|100%
+63011561-&gt;63010552|合格|100%|96%
+63011561-&gt;63010565|合格|100%|100%
+63011561-&gt;63010873|合格|100%|100%
+63011561-&gt;63011538|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:38:51</t>
+  </si>
+  <si>
+    <t>1小时27分钟27秒</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>66000236-TV
+66900618-ANDROID_JIHY</t>
+  </si>
+  <si>
+    <t>66000236-背包
+66900618-刘莹</t>
+  </si>
+  <si>
+    <t>66000236-&gt;66900618|合格|100%|100%
+66900618-&gt;66000236|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0小时15分钟40秒</t>
+  </si>
+  <si>
+    <t>2019-01-28 16:54:18</t>
+  </si>
+  <si>
+    <t>65000825-TV
+69900457-MOBILE
+69900455-MOBILE
+69900454-MOBILE
+69900456-MOBILE
+69900458-MOBILE
+69900452-MOBILE</t>
+  </si>
+  <si>
+    <t>65000825-宁波银联商务
+69900457-余姚办事处
+69900455-宁海办事处
+69900454-奉化
+69900456-象山
+69900458-镇海
+69900452-北仑业务部</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:100%</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:99%</t>
+  </si>
+  <si>
+    <t>65000825-&gt;69900452|合格|99%|100%
+65000825-&gt;69900454|合格|99%|100%
+65000825-&gt;69900455|合格|99%|100%
+65000825-&gt;69900456|合格|99%|99%
+65000825-&gt;69900457|合格|99%|99%
+65000825-&gt;69900458|合格|99%|100%</t>
+  </si>
+  <si>
+    <t>1小时58分钟48秒</t>
+  </si>
+  <si>
+    <t>2019-01-28 16:22:00</t>
+  </si>
+  <si>
+    <t>61000893-M1plus
+63013915-ANDROID_JIHY
+63015569-ANDROID_JIHY
+61000894-M1plus
+63013932-IOS_KESHI
+63013933-IOS_KESHI
+61000895-M1plus
+63015568-ANDROID_JIHY
+63013950-IOS_KESHI</t>
+  </si>
+  <si>
+    <t>61000893-未命名
+63013915-周盛
+63015569-王保林
+61000894-西安
+63013932-未命名
+63013933-虞兰
+61000895-成都
+63015568-未命名
+63013950-未命名</t>
+  </si>
+  <si>
+    <t>丢包:92%
+空音包:96%</t>
+  </si>
+  <si>
+    <t>丢包:2%
+空音包:55%</t>
+  </si>
+  <si>
+    <t>61000893-&gt;61000894|合格|100%|99%
+61000893-&gt;61000895|合格|100%|97%
+61000893-&gt;63013915|合格|99%|98%
+61000893-&gt;63013932|不合格|2%|55%
+61000893-&gt;63013933|不合格|36%|98%
+61000893-&gt;63013950|合格|100%|100%
+61000893-&gt;63015568|合格|100%|96%
+61000893-&gt;63015569|合格|99%|98%
+61000894-&gt;61000893|合格|100%|99%
+61000894-&gt;61000895|合格|99%|99%
+61000894-&gt;63013915|合格|100%|99%
+61000894-&gt;63013932|合格|99%|99%
+61000894-&gt;63013933|合格|99%|99%
+61000894-&gt;63013950|合格|100%|100%
+61000894-&gt;63015568|合格|99%|99%
+61000894-&gt;63015569|合格|99%|99%
+63015569-&gt;61000893|合格|99%|100%
+63015569-&gt;61000894|合格|100%|99%
+63015569-&gt;61000895|合格|100%|99%
+63015569-&gt;63013915|合格|100%|99%
+63015569-&gt;63013932|合格|100%|100%
+63015569-&gt;63013933|合格|99%|97%
+63015569-&gt;63013950|合格|100%|100%
+63015569-&gt;63015568|合格|100%|99%</t>
+  </si>
+  <si>
+    <t>1小时15分钟37秒</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>2019-01-28 16:04:50</t>
+  </si>
+  <si>
+    <t>61000893-M1plus
+63013915-ANDROID_JIHY
+63013932-IOS_KESHI
+63015568-ANDROID_JIHY
+61000894-M1plus
+63015569-ANDROID_JIHY
+63015562-ANDROID_JIHY
+63013933-IOS_KESHI
+63015387-IOS_KESHI
+63013950-IOS_KESHI
+61000895-M1plus
+63015560-IOS_KESHI
+63015537-IOS_KESHI</t>
+  </si>
+  <si>
+    <t>61000893-未命名
+63013915-周盛
+63013932-未命名
+63015568-未命名
+61000894-西安
+63015569-王保林
+63015562-张雷
+63013933-虞兰
+63015387-安尚平
+63013950-未命名
+61000895-成都
+63015560-未命名
+63015537-成都张宏</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:93%</t>
+  </si>
+  <si>
+    <t>丢包:80%
+空音包:0%</t>
+  </si>
+  <si>
+    <t>61000893-&gt;61000894|合格|100%|95%
+61000893-&gt;63013915|合格|99%|99%
+61000893-&gt;63013932|合格|100%|100%
+61000893-&gt;63013933|合格|100%|100%
+61000893-&gt;63013950|合格|94%|77%
+61000893-&gt;63015387|合格|100%|90%
+61000893-&gt;63015562|合格|100%|96%
+61000893-&gt;63015568|合格|100%|76%
+61000893-&gt;63015569|合格|100%|90%
+63013932-&gt;61000893|合格|100%|100%
+63013932-&gt;63013915|合格|100%|0%
+63013933-&gt;61000893|合格|100%|100%
+63013933-&gt;61000894|合格|100%|100%
+63013933-&gt;61000895|合格|100%|100%
+63013933-&gt;63013915|合格|100%|100%
+63013933-&gt;63013932|合格|100%|100%
+63013933-&gt;63013950|合格|100%|100%
+63013933-&gt;63015387|合格|100%|100%
+63013933-&gt;63015560|合格|100%|100%
+63013933-&gt;63015562|合格|100%|100%
+63013933-&gt;63015569|合格|100%|100%
+63013950-&gt;61000893|合格|100%|90%
+63013950-&gt;61000894|合格|100%|100%
+63013950-&gt;61000895|合格|100%|93%
+63013950-&gt;63013915|合格|100%|100%
+63013950-&gt;63013932|合格|100%|100%
+63013950-&gt;63013933|合格|100%|100%
+63013950-&gt;63015562|合格|100%|95%
+63013950-&gt;63015568|合格|100%|50%
+63013950-&gt;63015569|合格|100%|100%
+63015560-&gt;61000895|合格|80%|100%
+63015560-&gt;63015562|合格|100%|100%
+63015562-&gt;61000893|合格|100%|100%
+63015562-&gt;61000894|合格|100%|85%
+63015562-&gt;61000895|合格|100%|80%
+63015562-&gt;63013915|合格|100%|88%
+63015562-&gt;63013932|合格|100%|100%
+63015562-&gt;63013933|合格|100%|100%
+63015562-&gt;63013950|合格|100%|100%
+63015562-&gt;63015569|合格|100%|100%
+63015568-&gt;61000893|合格|100%|100%
+63015568-&gt;61000894|合格|100%|91%
+63015568-&gt;63013915|合格|100%|92%
+63015568-&gt;63013932|合格|100%|92%
+63015568-&gt;63013950|合格|100%|75%
+63015569-&gt;61000893|合格|100%|95%
+63015569-&gt;61000894|合格|100%|96%
+63015569-&gt;61000895|合格|100%|91%
+63015569-&gt;63013915|合格|100%|100%
+63015569-&gt;63013932|合格|100%|100%
+63015569-&gt;63013933|合格|100%|100%
+63015569-&gt;63013950|合格|100%|100%
+63015569-&gt;63015562|合格|95%|100%
+63015569-&gt;63015568|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>1小时23分钟37秒</t>
+  </si>
+  <si>
+    <t>2019-01-28 15:37:48</t>
+  </si>
+  <si>
+    <t>60020144-西南分公司
+60020140-富川公司
+60015074-海南东方</t>
+  </si>
+  <si>
+    <t>60020144-M1plus
+60020140-M1plus
+60015074-M1plus</t>
+  </si>
+  <si>
+    <t>60015074-&gt;60020140|合格|100%|100%
+60015074-&gt;60020144|合格|100%|99%
+60020140-&gt;60015074|合格|100%|99%
+60020140-&gt;60020144|合格|100%|99%
+60020144-&gt;60015074|合格|100%|96%
+60020144-&gt;60020140|合格|99%|99%</t>
+  </si>
+  <si>
+    <t>丢包:99%
+空音包:96%</t>
   </si>
   <si>
     <t>丢包:99%
 空音包:98%</t>
   </si>
   <si>
-    <t>丢包:100%
-空音包:99%</t>
-  </si>
-  <si>
-    <t>60011115-&gt;61000890|合格|99%|99%
-60011115-&gt;63013292|合格|99%|98%
-61000890-&gt;60011115|合格|99%|99%
-61000890-&gt;63013292|合格|99%|98%
-63013292-&gt;60011115|合格|100%|99%
-63013292-&gt;61000890|合格|99%|99%</t>
-  </si>
-  <si>
-    <t>2019-01-22 17:50:32</t>
-  </si>
-  <si>
-    <t>1小时5分钟1秒</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>67003086-网络支撑响应中心
-67003103-录像助理3
-67003101-投屏助理</t>
-  </si>
-  <si>
-    <t>67003086-IOS_KESHI
-67003103-MOBILE
-67003101-MOBILE</t>
-  </si>
-  <si>
-    <t>60011115-&gt;61000890|合格|99%|99%
-60011115-&gt;63013292|合格|99%|98%</t>
-  </si>
-  <si>
-    <t>2019-01-22 16:49:14</t>
-  </si>
-  <si>
-    <t>0小时0分钟2秒</t>
-  </si>
-  <si>
-    <t>60610184-M3Z
-63012632-ANDROID_JIHY</t>
-  </si>
-  <si>
-    <t>60610184-未命名
-63012632-纪怀锋</t>
-  </si>
-  <si>
-    <t>0小时2分钟27秒</t>
-  </si>
-  <si>
-    <t>2019-01-22 15:37:59</t>
-  </si>
-  <si>
-    <t>67003071-ANDROID_JIHY
-67003103-MOBILE</t>
-  </si>
-  <si>
-    <t>67003071-钟强
-67003103-录像助理3</t>
-  </si>
-  <si>
-    <t>丢包:99%
-空音包:99%</t>
-  </si>
-  <si>
-    <t>60011115-&gt;61000890|合格|99%|99%</t>
-  </si>
-  <si>
-    <t>0小时10分钟17秒</t>
-  </si>
-  <si>
-    <t>2019-01-22 15:04:15</t>
+    <t>2019-01-28 14:21:02</t>
+  </si>
+  <si>
+    <t>1小时36分钟6秒</t>
+  </si>
+  <si>
+    <t>60400014-夏总办公室
+61001268-褚桐逍
+61000398-刘奇
+61001382-guoweikuan
+63000720-钱宁
+61001594-赵寿斌
+63004897-谷群先
+62100026-7L会议室
+61001202-马翊桓PC
+61001201-王宁
+60010754-上海-邓阳武</t>
+  </si>
+  <si>
+    <t>60400014-M3
+61001268-TV
+61000398-TV
+61001382-TV
+63000720-IOS_KESHI
+61001594-TV
+63004897-ANDROID_JIHY
+62100026-TV
+61001202-TV
+61001201-TV
+60010754-TV</t>
+  </si>
+  <si>
+    <t>60400014-&gt;61000398|合格|100%|100%
+60400014-&gt;61001268|合格|100%|98%
+60400014-&gt;61001382|合格|100%|95%
+60400014-&gt;61001594|合格|100%|75%
+60400014-&gt;63000720|合格|100%|100%
+61000398-&gt;60400014|合格|100%|100%
+61000398-&gt;61001268|合格|100%|50%
+61001202-&gt;61001201|合格|100%|100%
+61001202-&gt;62100026|合格|100%|80%
+61001202-&gt;63000720|合格|100%|100%
+61001268-&gt;60010754|合格|99%|99%
+61001268-&gt;60400014|合格|100%|100%
+61001268-&gt;61000398|合格|100%|99%
+61001268-&gt;61001201|合格|100%|100%
+61001268-&gt;61001202|合格|99%|99%
+61001268-&gt;61001382|合格|100%|99%
+61001268-&gt;61001594|不合格|55%|5%
+61001268-&gt;62100026|合格|100%|99%
+61001268-&gt;63000720|合格|100%|99%
+61001268-&gt;63004897|合格|100%|99%
+61001382-&gt;61000398|合格|100%|100%
+61001382-&gt;61001268|合格|100%|0%
+61001594-&gt;60400014|合格|100%|100%
+61001594-&gt;61000398|合格|100%|100%
+61001594-&gt;61001268|合格|100%|100%
+62100026-&gt;60010754|合格|99%|99%
+62100026-&gt;61000398|合格|99%|99%
+62100026-&gt;61001201|合格|99%|99%
+62100026-&gt;61001202|合格|99%|98%
+62100026-&gt;61001268|合格|98%|99%
+62100026-&gt;61001382|合格|100%|99%
+62100026-&gt;63000720|合格|99%|99%
+62100026-&gt;63004897|合格|99%|99%
+63000720-&gt;60400014|合格|100%|100%
+63000720-&gt;61000398|合格|100%|71%
+63000720-&gt;61001268|合格|100%|85%
+63000720-&gt;61001382|合格|100%|75%
+63004897-&gt;61000398|合格|100%|100%
+63004897-&gt;61001201|合格|100%|100%
+63004897-&gt;61001268|合格|100%|100%
+63004897-&gt;61001382|合格|100%|66%
+63004897-&gt;62100026|合格|100%|66%
+63004897-&gt;63000720|合格|100%|100%</t>
+  </si>
+  <si>
+    <t>丢包:55%
+空音包:0%</t>
+  </si>
+  <si>
+    <t>丢包:98%
+空音包:89%</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:55:51</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>20小时49分钟50秒</t>
+  </si>
+  <si>
+    <t>65000594-B106会议室
+65000598-新疆分公司
+65000596-甘肃分公司
+69900996-数字王府井-培训室
+65000822-银联商务青海分公司
+65000810-陕西分公司
+69900701-厦门分公司
+69900372-江苏21楼会议室
+65000819-宁夏分公司
+69900887-天津 分公司四楼
+65000830-重庆分公司
+69900653-上海银商中区业务部
+69900722-张三
+69900244-河南分公司17楼
+69900450-银联商务辽宁分公司
+65000587-上海分公司
+65000812-山东分公司
+65000597-四川分公司
+65000816-吉林分公司
+69900018-安徽分公司淮南业务部
+65000808-河北分公司
+65000831-贵州分公司
+65000825-宁波银联商务
+65000827-银联商务福建分公司
+65000829-深圳市银联金融网络有限公司
+65000824-海南分公司
+69900430-银联商务江西分公司
+65000817-黑龙江分公司
+69900128-广西分公司
+65000813-青岛分公司
+69900256-湖北分公司办公室
+65000590-银联商务湖南分公司</t>
+  </si>
+  <si>
+    <t>1小时36分钟27秒</t>
+  </si>
+  <si>
+    <t>丢包:92%
+空音包:40%</t>
+  </si>
+  <si>
+    <t>65000594-TV
+65000598-TV
+65000596-TV
+69900996-MOBILE
+65000822-TV
+65000810-TV
+69900701-MOBILE
+69900372-MOBILE
+65000819-TV
+69900887-MOBILE
+65000830-TV
+69900653-MOBILE
+69900722-MOBILE
+69900244-MOBILE
+69900450-MOBILE
+65000587-TV
+65000812-TV
+65000597-TV
+65000816-TV
+69900018-MOBILE
+65000808-TV
+65000831-TV
+65000825-TV
+65000827-TV
+65000829-TV
+65000824-TV
+69900430-MOBILE
+65000817-TV
+69900128-MOBILE
+65000813-TV
+69900256-MOBILE
+65000590-TV</t>
+  </si>
+  <si>
+    <t>65000594-&gt;65000587|合格|100%|100%
+65000594-&gt;65000590|合格|100%|100%
+65000594-&gt;65000596|合格|100%|100%
+65000594-&gt;65000597|合格|100%|100%
+65000594-&gt;65000598|合格|92%|98%
+65000594-&gt;65000808|合格|100%|100%
+65000594-&gt;65000810|合格|100%|100%
+65000594-&gt;65000812|合格|100%|100%
+65000594-&gt;65000813|合格|92%|96%
+65000594-&gt;65000816|合格|100%|100%
+65000594-&gt;65000817|合格|100%|100%
+65000594-&gt;65000819|合格|100%|100%
+65000594-&gt;65000822|合格|100%|100%
+65000594-&gt;65000824|合格|100%|100%
+65000594-&gt;65000825|合格|100%|100%
+65000594-&gt;65000827|合格|100%|100%
+65000594-&gt;65000829|合格|100%|99%
+65000594-&gt;65000830|合格|100%|100%
+65000594-&gt;65000831|合格|100%|100%
+65000594-&gt;69900018|合格|99%|99%
+65000594-&gt;69900128|合格|99%|99%
+65000594-&gt;69900244|合格|100%|100%
+65000594-&gt;69900256|合格|99%|98%
+65000594-&gt;69900372|合格|100%|100%
+65000594-&gt;69900430|合格|100%|100%
+65000594-&gt;69900450|合格|100%|99%
+65000594-&gt;69900653|合格|100%|100%
+65000594-&gt;69900701|合格|100%|100%
+65000594-&gt;69900722|合格|100%|99%
+65000594-&gt;69900887|合格|100%|99%
+65000594-&gt;69900996|合格|100%|100%
+65000829-&gt;65000587|合格|100%|80%
+65000829-&gt;65000590|合格|100%|80%
+65000829-&gt;65000808|合格|100%|80%
+65000829-&gt;65000813|合格|100%|40%
+65000829-&gt;65000822|合格|100%|80%
+65000829-&gt;65000827|合格|100%|80%
+65000829-&gt;65000830|合格|100%|50%
+65000829-&gt;69900244|合格|100%|50%
+65000829-&gt;69900372|合格|100%|80%
+65000829-&gt;69900430|合格|100%|75%
+65000829-&gt;69900653|合格|100%|66%
+65000829-&gt;69900887|合格|100%|80%</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:32:42</t>
   </si>
 </sst>
 </file>
@@ -476,7 +1573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,16 +1624,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70451805</v>
+        <v>70453637</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -545,13 +1642,13 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -565,37 +1662,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30451769</v>
+        <v>10453600</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -603,37 +1700,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>80451691</v>
+        <v>20453513</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -641,37 +1738,227 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30451669</v>
+        <v>40453471</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70453457</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60453445</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90453417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20453381</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80453365</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="n">
         <v>32</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
